--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/17/incorrect_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>17-21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -596,12 +596,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
+          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>31-35</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -621,15 +621,65 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>2. Calibrate Compass Before Takeoff</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31-35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ensure there are no magnets or metal objects near the aircraft</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4-14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>Calibrate Compass Before Takeoff</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>32-35</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>False</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/17/incorrect_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Unlocking takeoff restrictions not recommended</t>
+          <t>Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17-21</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -596,12 +596,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
+          <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>31-35</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -621,65 +621,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
+          <t>Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>31-35</t>
+          <t>32-35</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Ensure there are no magnets or metal objects near the aircraft</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4-14</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Calibrate Compass Before Takeoff</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>32-35</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
         <is>
           <t>False</t>
         </is>
